--- a/research results/Two Level Numbers.xlsx
+++ b/research results/Two Level Numbers.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="LogisticRegression - Obesity" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="SVM - Obesity" sheetId="4" r:id="rId1"/>
+    <sheet name="LogisticRegression - Obesity" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>Min Preprocessing</t>
   </si>
@@ -39,9 +40,6 @@
     <t>Tf-Idf*</t>
   </si>
   <si>
-    <t>* SVM performs better only with tf-idf and is at par with every other</t>
-  </si>
-  <si>
     <t>Word Count/Bag of words</t>
   </si>
   <si>
@@ -103,6 +101,9 @@
   </si>
   <si>
     <t>Using LR, one hot encoding, min preprocessing and ngram(1,2)</t>
+  </si>
+  <si>
+    <t>ngram(1,3)</t>
   </si>
 </sst>
 </file>
@@ -193,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -214,6 +215,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,21 +553,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>95.2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>94.3</v>
+        <v>93.9</v>
+      </c>
+      <c r="C4" s="11">
+        <v>93.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>95.6</v>
+      <c r="B5" s="12">
+        <v>95</v>
       </c>
       <c r="C5" s="1">
-        <v>94.9</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,110 +575,146 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>95.1</v>
+        <v>94.9</v>
       </c>
       <c r="C6" s="1">
-        <v>93.6</v>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>94.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>94.6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>94.1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4">
-        <v>95.6</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>95.2</v>
       </c>
       <c r="C12" s="1">
-        <v>95.1</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12">
+        <v>94.8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
+        <v>95</v>
+      </c>
+      <c r="C14" s="11">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>94.4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>93.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12">
         <v>95.3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C20" s="1">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="C21" s="11">
         <v>93.6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>87.4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>85.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>83.2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="C19" s="11">
-        <v>79.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="12">
+        <v>95.3</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -685,9 +724,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>95.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>95.6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>94.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>95.6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>95.3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>94.7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="C21" s="11">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>79.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -700,26 +946,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
         <v>3114</v>
@@ -733,7 +979,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <v>438</v>
@@ -747,7 +993,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7">
         <v>873</v>
@@ -761,7 +1007,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7">
         <v>102</v>
@@ -775,7 +1021,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7">
         <v>5270</v>
@@ -789,7 +1035,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7">
         <v>571</v>
@@ -803,7 +1049,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>312</v>
@@ -817,7 +1063,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7">
         <v>544</v>
@@ -837,7 +1083,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9">
         <v>3552</v>
@@ -851,7 +1097,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>4425</v>
@@ -865,7 +1111,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="9">
         <v>4527</v>
@@ -879,7 +1125,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9">
         <v>9797</v>
@@ -893,7 +1139,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9">
         <v>10368</v>
@@ -907,7 +1153,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9">
         <v>10680</v>
@@ -921,7 +1167,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9">
         <v>11224</v>
@@ -939,7 +1185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/research results/Two Level Numbers.xlsx
+++ b/research results/Two Level Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SVM - Obesity" sheetId="4" r:id="rId1"/>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/research results/Two Level Numbers.xlsx
+++ b/research results/Two Level Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SVM - Obesity" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Min Preprocessing</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>ngram(1,3)</t>
+  </si>
+  <si>
+    <t>Tf-Idf</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,9 @@
       <c r="B22" s="12">
         <v>95.3</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>94.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -726,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +870,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -931,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
